--- a/data/trans_dic/P21_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.149714006883622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2383155211847635</v>
+        <v>0.2383155211847636</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2235305137392606</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1332760186014306</v>
+        <v>0.1315210306594261</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09608009894694422</v>
+        <v>0.09730989930704068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1150898328544373</v>
+        <v>0.1137173515397372</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1993732490414438</v>
+        <v>0.1980780515240628</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1800219795895104</v>
+        <v>0.1781056003272295</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2077079489570176</v>
+        <v>0.2088307660425321</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1786327046668072</v>
+        <v>0.1785772179195549</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2084312005207266</v>
+        <v>0.2067256121445254</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.160089298450319</v>
+        <v>0.1609543958457431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1532321537685895</v>
+        <v>0.1543022022734117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1545349571636701</v>
+        <v>0.153203373784254</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.216327042834117</v>
+        <v>0.2158263796282608</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.203321247067505</v>
+        <v>0.2012797366085918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1637953929867585</v>
+        <v>0.160989567529614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.184656616402731</v>
+        <v>0.1845485792147783</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2742744507958658</v>
+        <v>0.276795519088134</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2725377908386123</v>
+        <v>0.2773916376472504</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3158996306612705</v>
+        <v>0.3147956450650906</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2690052895463781</v>
+        <v>0.2688153226286165</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2760154733738718</v>
+        <v>0.277359919958973</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.217054402875346</v>
+        <v>0.2189772515450196</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2157924792779592</v>
+        <v>0.2115448402569544</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2149561063433598</v>
+        <v>0.2113925677361953</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.269447798108218</v>
+        <v>0.2653256602090087</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1466734219816367</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1701577616893067</v>
+        <v>0.1701577616893066</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2459321366695191</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1417339894355163</v>
+        <v>0.1437546649752975</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1306138764829007</v>
+        <v>0.1321257150162838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1102842773400841</v>
+        <v>0.1126272123796674</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.138962052913005</v>
+        <v>0.1338204552161696</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2029323230145667</v>
+        <v>0.2049196553391711</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2129625699963588</v>
+        <v>0.2057259593659926</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1784601559132614</v>
+        <v>0.176907431001241</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2196462245242973</v>
+        <v>0.2232788908326253</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1860692912609834</v>
+        <v>0.1837956973087897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1813121501130841</v>
+        <v>0.1786646308532611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.155362970030012</v>
+        <v>0.1572766099736193</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1868035797194544</v>
+        <v>0.1852593234767559</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2325577211392123</v>
+        <v>0.227132922668402</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2075412969238658</v>
+        <v>0.2114232778167964</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1880392851906565</v>
+        <v>0.1879657592504726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2083138290020998</v>
+        <v>0.2038184233751724</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2909840554888999</v>
+        <v>0.295425899460559</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3127798550487384</v>
+        <v>0.3073144041218068</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2656263963342257</v>
+        <v>0.2692813802818372</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2984164525009634</v>
+        <v>0.2982040987625216</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2441157410104404</v>
+        <v>0.2442221516291618</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.242564982947219</v>
+        <v>0.2423241739429495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2131212241087801</v>
+        <v>0.2159048018772223</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2392326610795469</v>
+        <v>0.240047199863371</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1477652632522815</v>
+        <v>0.1437196710195733</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2131093619607611</v>
+        <v>0.2095302525121837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.142233487936425</v>
+        <v>0.140793890021663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1664456280235605</v>
+        <v>0.1715319531913146</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2137507470338883</v>
+        <v>0.2131266519049739</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1529672193285667</v>
+        <v>0.1598980855445859</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1345577588657586</v>
+        <v>0.1301318375533124</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2572680326868997</v>
+        <v>0.2597602908103507</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1735616316796775</v>
+        <v>0.1728331657548079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2051212491566542</v>
+        <v>0.2053027000660038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1488888588407981</v>
+        <v>0.1505376694163466</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2040966552944697</v>
+        <v>0.2050651661482715</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2107791643737824</v>
+        <v>0.2088818201766119</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2885489049837858</v>
+        <v>0.2856942289442933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2137489614381476</v>
+        <v>0.2073078128319067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.244450459857675</v>
+        <v>0.2469738611285473</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3538601825221243</v>
+        <v>0.352642373745757</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.255759381050844</v>
+        <v>0.2602196067977238</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2613031182374005</v>
+        <v>0.2542869392655974</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3762508239590419</v>
+        <v>0.3728795751780401</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2303120115782053</v>
+        <v>0.2317233759759724</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2666294472510408</v>
+        <v>0.264852389855742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2104345052638073</v>
+        <v>0.2095638622948369</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2707348817055108</v>
+        <v>0.2698733906849308</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1995389041965512</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2487668098865178</v>
+        <v>0.2487668098865179</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1607969482652281</v>
+        <v>0.1592295467485585</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1956762949823537</v>
+        <v>0.1973979826188441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1457695929633152</v>
+        <v>0.145281631704372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1941231071748659</v>
+        <v>0.1964586485894611</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2311250631626326</v>
+        <v>0.2333130908576086</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2549639225687104</v>
+        <v>0.258470058246602</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.214545142133847</v>
+        <v>0.215093887735978</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2567897670378954</v>
+        <v>0.2591380276571636</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1936473155126375</v>
+        <v>0.1953551800435769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2265478222415763</v>
+        <v>0.2261356640829846</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1818858641962021</v>
+        <v>0.1815497135813636</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2297736649100763</v>
+        <v>0.22965496034707</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2032472285343057</v>
+        <v>0.2055270084223977</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2458745107394837</v>
+        <v>0.2455768910279618</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.190768411290702</v>
+        <v>0.1898022708371411</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2526547799220906</v>
+        <v>0.2534679233957608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2986561509549084</v>
+        <v>0.297834834864405</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3233149742046374</v>
+        <v>0.3278223261301226</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2746401387709819</v>
+        <v>0.2752584536253379</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3132872972577411</v>
+        <v>0.3127304885211541</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2310592139659476</v>
+        <v>0.2305766301285677</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2675608455702833</v>
+        <v>0.2693802942015658</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2185648759463643</v>
+        <v>0.2204002318441981</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2688193608827099</v>
+        <v>0.2687245130115056</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1620210253816879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1925141780092231</v>
+        <v>0.192514178009223</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2416854681008908</v>
@@ -1241,7 +1241,7 @@
         <v>0.1856576124385664</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2208056090336516</v>
+        <v>0.2208056090336515</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.103210054900654</v>
+        <v>0.1053875900175946</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1753451644125222</v>
+        <v>0.1793185357606172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1340810491977567</v>
+        <v>0.1312408907369424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1610738139338334</v>
+        <v>0.1609057664188066</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2016062828627625</v>
+        <v>0.2043358748110141</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2661435688970497</v>
+        <v>0.2705375412355415</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1758683219096839</v>
+        <v>0.1768308457987008</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2163871119764309</v>
+        <v>0.2147510008547477</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1760243495257558</v>
+        <v>0.1750487370577586</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2416017772910949</v>
+        <v>0.2428370292138416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1636686421989435</v>
+        <v>0.1659767373924473</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2008313190542149</v>
+        <v>0.1989762491285542</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1788247847331731</v>
+        <v>0.1833789728267343</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.24934072706479</v>
+        <v>0.2552156189572238</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1943105656329735</v>
+        <v>0.1918435697289871</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2309354704779759</v>
+        <v>0.2293092835817277</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2807906981305091</v>
+        <v>0.2780973214606561</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3400467476616188</v>
+        <v>0.3407767333506199</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2364536195551071</v>
+        <v>0.239437383201588</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.266132621917191</v>
+        <v>0.2658203572326607</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2292475734195055</v>
+        <v>0.2285876046925537</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2922490785248218</v>
+        <v>0.2966418257318192</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2083646654130503</v>
+        <v>0.2083072199228151</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2424647882509621</v>
+        <v>0.241331261438634</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.110095809049332</v>
+        <v>0.1119991119766811</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1759338297232859</v>
+        <v>0.1769870126851904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1753712345511849</v>
+        <v>0.1693759355780536</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1106648667306026</v>
+        <v>0.1128544321385847</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2107712240539084</v>
+        <v>0.2108703131115066</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2487050518137575</v>
+        <v>0.2466425539105431</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1754751978241925</v>
+        <v>0.1779564567808199</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1842361955789128</v>
+        <v>0.181249441166907</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.196450915261958</v>
+        <v>0.1973501608419545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2390731835115237</v>
+        <v>0.2395694336494406</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1838636561242468</v>
+        <v>0.1849356896503175</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1768854588501165</v>
+        <v>0.1760193522995205</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1953385535191957</v>
+        <v>0.1956477037294685</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2764863059612102</v>
+        <v>0.2767554789692931</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2746233684208495</v>
+        <v>0.2734872824994657</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2644273362044265</v>
+        <v>0.2701380008688231</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2592547410301426</v>
+        <v>0.2578684465345349</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3038424527244897</v>
+        <v>0.3023193906143436</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2283485785541731</v>
+        <v>0.2264265690693168</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2391987575657974</v>
+        <v>0.2335544645114516</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2385906526552177</v>
+        <v>0.2399631071334703</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2875977666746965</v>
+        <v>0.2905953631687716</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2304707854965639</v>
+        <v>0.2283885417435106</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2312618495148775</v>
+        <v>0.228651929977526</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1594043765441981</v>
+        <v>0.1575313316757201</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1918096680290585</v>
+        <v>0.1925242193813873</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1550547853102958</v>
+        <v>0.154892730191801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1917946394851584</v>
+        <v>0.1918344357321168</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2295500685831851</v>
+        <v>0.2285948225360077</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2599550753428246</v>
+        <v>0.2579876808903164</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2021252229994093</v>
+        <v>0.2021881064278784</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2372357969469171</v>
+        <v>0.2367087594809011</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1978387255820409</v>
+        <v>0.198490669447102</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2311735458480021</v>
+        <v>0.2307055383926932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1813159174783621</v>
+        <v>0.1826848792019965</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2181692714135241</v>
+        <v>0.2196160917016847</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1855523115571735</v>
+        <v>0.1848224847627073</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2208339510141541</v>
+        <v>0.2210545946844921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1807195429630692</v>
+        <v>0.1810759609841095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2247120746394152</v>
+        <v>0.2226123681445764</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2591170014174055</v>
+        <v>0.2589016029881124</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.291225220335508</v>
+        <v>0.2891073155210215</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2293593866408491</v>
+        <v>0.2294524917727154</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2628536383832043</v>
+        <v>0.2632991665702418</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2190044044640222</v>
+        <v>0.2186971647407723</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2521274006741105</v>
+        <v>0.25271690236197</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2012607359803477</v>
+        <v>0.201931259329881</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2382073731012036</v>
+        <v>0.2388895823019333</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>63143</v>
+        <v>62312</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>42007</v>
+        <v>42545</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49384</v>
+        <v>48795</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>109386</v>
+        <v>108675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55209</v>
+        <v>54621</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>65315</v>
+        <v>65668</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>61515</v>
+        <v>61496</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>101644</v>
+        <v>100812</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>124943</v>
+        <v>125618</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>115179</v>
+        <v>115984</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>119527</v>
+        <v>118497</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>224182</v>
+        <v>223663</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>96329</v>
+        <v>95362</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71613</v>
+        <v>70386</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79235</v>
+        <v>79188</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>150480</v>
+        <v>151863</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83582</v>
+        <v>85070</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>99336</v>
+        <v>98989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>92637</v>
+        <v>92571</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>134603</v>
+        <v>135258</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>169402</v>
+        <v>170902</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>162204</v>
+        <v>159011</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>166260</v>
+        <v>163504</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>279231</v>
+        <v>274960</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51882</v>
+        <v>52621</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54701</v>
+        <v>55334</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41390</v>
+        <v>42269</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67148</v>
+        <v>64664</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>75272</v>
+        <v>76010</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>71526</v>
+        <v>69096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66278</v>
+        <v>65701</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>92750</v>
+        <v>94284</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>137128</v>
+        <v>135453</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>136829</v>
+        <v>134831</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>116008</v>
+        <v>117437</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>169147</v>
+        <v>167749</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>85128</v>
+        <v>83142</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>86918</v>
+        <v>88543</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>70571</v>
+        <v>70544</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100660</v>
+        <v>98488</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>107933</v>
+        <v>109581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>105051</v>
+        <v>103216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>98651</v>
+        <v>100008</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>126012</v>
+        <v>125923</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>179907</v>
+        <v>179985</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>183054</v>
+        <v>182873</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>159135</v>
+        <v>161214</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>216621</v>
+        <v>217358</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>80146</v>
+        <v>77952</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133931</v>
+        <v>131682</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74234</v>
+        <v>73482</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>78498</v>
+        <v>80897</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>35864</v>
+        <v>35759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>39791</v>
+        <v>41594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22136</v>
+        <v>21407</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48059</v>
+        <v>48525</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>123258</v>
+        <v>122741</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>182269</v>
+        <v>182430</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>102200</v>
+        <v>103332</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>134381</v>
+        <v>135018</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>114324</v>
+        <v>113295</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>181342</v>
+        <v>179548</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111559</v>
+        <v>108197</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>115286</v>
+        <v>116476</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59371</v>
+        <v>59167</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66530</v>
+        <v>67691</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42986</v>
+        <v>41832</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70286</v>
+        <v>69656</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>163561</v>
+        <v>164563</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>236924</v>
+        <v>235345</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>144446</v>
+        <v>143849</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>178256</v>
+        <v>177689</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>199120</v>
+        <v>197179</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>226453</v>
+        <v>228445</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>166914</v>
+        <v>166356</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>219717</v>
+        <v>222360</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>165089</v>
+        <v>166652</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>195470</v>
+        <v>198158</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>177188</v>
+        <v>177641</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>221150</v>
+        <v>223173</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>378120</v>
+        <v>381454</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>435864</v>
+        <v>435071</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>358485</v>
+        <v>357822</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>457951</v>
+        <v>457715</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>251688</v>
+        <v>254511</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>284546</v>
+        <v>284202</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>218441</v>
+        <v>217334</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>285966</v>
+        <v>286886</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>213326</v>
+        <v>212739</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>247872</v>
+        <v>251327</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>226819</v>
+        <v>227329</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>269806</v>
+        <v>269327</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>451171</v>
+        <v>450229</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>514771</v>
+        <v>518272</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>430777</v>
+        <v>434394</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>535772</v>
+        <v>535582</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36181</v>
+        <v>36944</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>89531</v>
+        <v>91559</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>82668</v>
+        <v>80917</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>91484</v>
+        <v>91389</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>114664</v>
+        <v>116216</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>202419</v>
+        <v>205761</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>129834</v>
+        <v>130544</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>179511</v>
+        <v>178154</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>161820</v>
+        <v>160924</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>307114</v>
+        <v>308684</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>221737</v>
+        <v>224864</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>280671</v>
+        <v>278078</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>62688</v>
+        <v>64284</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>127312</v>
+        <v>130312</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>119802</v>
+        <v>118281</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>131163</v>
+        <v>130239</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>159700</v>
+        <v>158168</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>258627</v>
+        <v>259182</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>174560</v>
+        <v>176763</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>220779</v>
+        <v>220520</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>210749</v>
+        <v>210142</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>371495</v>
+        <v>377079</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>282291</v>
+        <v>282213</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>338856</v>
+        <v>337272</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>32831</v>
+        <v>33398</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>46954</v>
+        <v>47235</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50357</v>
+        <v>48635</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26253</v>
+        <v>26772</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>263203</v>
+        <v>263326</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>275901</v>
+        <v>273613</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>189646</v>
+        <v>192327</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>155028</v>
+        <v>152515</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>303902</v>
+        <v>305293</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>329020</v>
+        <v>329703</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>251507</v>
+        <v>252973</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>190805</v>
+        <v>189871</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58250</v>
+        <v>58342</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>73789</v>
+        <v>73861</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>78857</v>
+        <v>78531</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62730</v>
+        <v>64084</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>323747</v>
+        <v>322016</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>337068</v>
+        <v>335378</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>246789</v>
+        <v>244711</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>201277</v>
+        <v>196528</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>369090</v>
+        <v>371213</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>395802</v>
+        <v>399927</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>315261</v>
+        <v>312412</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>249460</v>
+        <v>246645</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>521142</v>
+        <v>515018</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>655841</v>
+        <v>658284</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>523319</v>
+        <v>522772</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>659870</v>
+        <v>660007</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>775233</v>
+        <v>772007</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>922066</v>
+        <v>915087</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>712519</v>
+        <v>712741</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>860928</v>
+        <v>859015</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1314933</v>
+        <v>1319266</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1610412</v>
+        <v>1607152</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1251115</v>
+        <v>1260561</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1542348</v>
+        <v>1552576</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>606627</v>
+        <v>604241</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>755082</v>
+        <v>755836</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>609939</v>
+        <v>611142</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>773123</v>
+        <v>765899</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>875086</v>
+        <v>874358</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1032982</v>
+        <v>1025469</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>808523</v>
+        <v>808851</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>953895</v>
+        <v>955512</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1455610</v>
+        <v>1453568</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1756382</v>
+        <v>1760489</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1388738</v>
+        <v>1393365</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1684008</v>
+        <v>1688830</v>
       </c>
     </row>
     <row r="32">
